--- a/22nd June Angular Batch 3 - Sprint 1 Teams.xlsx
+++ b/22nd June Angular Batch 3 - Sprint 1 Teams.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\CorporateTraining\training 2021\20210625 Capgemini FSD June 22nd batch3\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\CorporateTraining\training 2021\20210625 Capgemini FSD June 22nd batch3\Sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68204613-1A2F-4CB4-B07F-CBDD7B14258E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D989D2-4160-4D4A-B7D6-7B56F76D6CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Teams</t>
   </si>
@@ -143,6 +143,21 @@
   </si>
   <si>
     <t>22nd June Angular Batch 3  Sprint 1 Teams</t>
+  </si>
+  <si>
+    <t>ABC Electronics Complaint Portal</t>
+  </si>
+  <si>
+    <t>Vehicle Licence Application</t>
+  </si>
+  <si>
+    <t>Home Loan App</t>
+  </si>
+  <si>
+    <t>Apartment Security Management</t>
+  </si>
+  <si>
+    <t>Developer Community App</t>
   </si>
 </sst>
 </file>
@@ -723,15 +738,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D691784-3682-4B04-81D2-ACC8141B46F1}">
   <dimension ref="A4:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.26953125" customWidth="1"/>
     <col min="2" max="2" width="31.6328125" customWidth="1"/>
-    <col min="4" max="4" width="27.08984375" customWidth="1"/>
+    <col min="4" max="4" width="31.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
@@ -774,7 +789,9 @@
       <c r="C8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -841,7 +858,9 @@
       <c r="C16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -901,7 +920,9 @@
       <c r="C23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="12" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -969,7 +990,9 @@
       <c r="C31" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -1029,7 +1052,9 @@
       <c r="C38" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="11"/>
+      <c r="D38" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
